--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H2">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I2">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J2">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>7696.978769320307</v>
+        <v>5.555192881564444</v>
       </c>
       <c r="R2">
-        <v>7696.978769320307</v>
+        <v>49.99673593407999</v>
       </c>
       <c r="S2">
-        <v>0.4216853355182995</v>
+        <v>0.0002896062662206303</v>
       </c>
       <c r="T2">
-        <v>0.4216853355182995</v>
+        <v>0.0002896062662206303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H3">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I3">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J3">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>1706.038076410555</v>
+        <v>1.147692322723555</v>
       </c>
       <c r="R3">
-        <v>1706.038076410555</v>
+        <v>10.329230904512</v>
       </c>
       <c r="S3">
-        <v>0.0934667043029544</v>
+        <v>5.983210582248003E-05</v>
       </c>
       <c r="T3">
-        <v>0.0934667043029544</v>
+        <v>5.983210582248004E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H4">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I4">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J4">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>1821.252351099727</v>
+        <v>1.276585452202667</v>
       </c>
       <c r="R4">
-        <v>1821.252351099727</v>
+        <v>11.489269069824</v>
       </c>
       <c r="S4">
-        <v>0.09977881344796788</v>
+        <v>6.655163091652597E-05</v>
       </c>
       <c r="T4">
-        <v>0.09977881344796788</v>
+        <v>6.655163091652598E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H5">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I5">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J5">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>6472.672361028292</v>
+        <v>4.360234738403554</v>
       </c>
       <c r="R5">
-        <v>6472.672361028292</v>
+        <v>39.242112645632</v>
       </c>
       <c r="S5">
-        <v>0.3546106983092621</v>
+        <v>0.0002273100735395035</v>
       </c>
       <c r="T5">
-        <v>0.3546106983092621</v>
+        <v>0.0002273100735395036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.46862162845379</v>
+        <v>174.184255</v>
       </c>
       <c r="H6">
-        <v>5.46862162845379</v>
+        <v>522.552765</v>
       </c>
       <c r="I6">
-        <v>0.03045844842151609</v>
+        <v>0.9597062674131449</v>
       </c>
       <c r="J6">
-        <v>0.03045844842151609</v>
+        <v>0.959706267413145</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>241.802974266719</v>
+        <v>8287.506281888982</v>
       </c>
       <c r="R6">
-        <v>241.802974266719</v>
+        <v>74587.55653700084</v>
       </c>
       <c r="S6">
-        <v>0.0132473755468067</v>
+        <v>0.4320486798114507</v>
       </c>
       <c r="T6">
-        <v>0.0132473755468067</v>
+        <v>0.4320486798114508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.46862162845379</v>
+        <v>174.184255</v>
       </c>
       <c r="H7">
-        <v>5.46862162845379</v>
+        <v>522.552765</v>
       </c>
       <c r="I7">
-        <v>0.03045844842151609</v>
+        <v>0.9597062674131449</v>
       </c>
       <c r="J7">
-        <v>0.03045844842151609</v>
+        <v>0.959706267413145</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>53.59571507883642</v>
+        <v>1712.183093734202</v>
       </c>
       <c r="R7">
-        <v>53.59571507883642</v>
+        <v>15409.64784360782</v>
       </c>
       <c r="S7">
-        <v>0.002936285492360542</v>
+        <v>0.08926043855435073</v>
       </c>
       <c r="T7">
-        <v>0.002936285492360542</v>
+        <v>0.08926043855435076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.46862162845379</v>
+        <v>174.184255</v>
       </c>
       <c r="H8">
-        <v>5.46862162845379</v>
+        <v>522.552765</v>
       </c>
       <c r="I8">
-        <v>0.03045844842151609</v>
+        <v>0.9597062674131449</v>
       </c>
       <c r="J8">
-        <v>0.03045844842151609</v>
+        <v>0.959706267413145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>57.21520723709332</v>
+        <v>1904.47211826032</v>
       </c>
       <c r="R8">
-        <v>57.21520723709332</v>
+        <v>17140.24906434288</v>
       </c>
       <c r="S8">
-        <v>0.003134582358040373</v>
+        <v>0.09928495212489188</v>
       </c>
       <c r="T8">
-        <v>0.003134582358040373</v>
+        <v>0.09928495212489191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>174.184255</v>
+      </c>
+      <c r="H9">
+        <v>522.552765</v>
+      </c>
+      <c r="I9">
+        <v>0.9597062674131449</v>
+      </c>
+      <c r="J9">
+        <v>0.959706267413145</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.34441866666666</v>
+      </c>
+      <c r="N9">
+        <v>112.033256</v>
+      </c>
+      <c r="O9">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="P9">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="Q9">
+        <v>6504.809743861426</v>
+      </c>
+      <c r="R9">
+        <v>58543.28769475284</v>
+      </c>
+      <c r="S9">
+        <v>0.3391121969224515</v>
+      </c>
+      <c r="T9">
+        <v>0.3391121969224515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H10">
+        <v>21.589359</v>
+      </c>
+      <c r="I10">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J10">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>47.57896333333333</v>
+      </c>
+      <c r="N10">
+        <v>142.73689</v>
+      </c>
+      <c r="O10">
+        <v>0.450188452948237</v>
+      </c>
+      <c r="P10">
+        <v>0.4501884529482371</v>
+      </c>
+      <c r="Q10">
+        <v>342.3997734170566</v>
+      </c>
+      <c r="R10">
+        <v>3081.59796075351</v>
+      </c>
+      <c r="S10">
+        <v>0.01785016687056562</v>
+      </c>
+      <c r="T10">
+        <v>0.01785016687056562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.46862162845379</v>
-      </c>
-      <c r="H9">
-        <v>5.46862162845379</v>
-      </c>
-      <c r="I9">
-        <v>0.03045844842151609</v>
-      </c>
-      <c r="J9">
-        <v>0.03045844842151609</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>37.1832287373793</v>
-      </c>
-      <c r="N9">
-        <v>37.1832287373793</v>
-      </c>
-      <c r="O9">
-        <v>0.3657509033335706</v>
-      </c>
-      <c r="P9">
-        <v>0.3657509033335706</v>
-      </c>
-      <c r="Q9">
-        <v>203.341008888977</v>
-      </c>
-      <c r="R9">
-        <v>203.341008888977</v>
-      </c>
-      <c r="S9">
-        <v>0.01114020502430848</v>
-      </c>
-      <c r="T9">
-        <v>0.01114020502430848</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H11">
+        <v>21.589359</v>
+      </c>
+      <c r="I11">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J11">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.829723666666666</v>
+      </c>
+      <c r="N11">
+        <v>29.489171</v>
+      </c>
+      <c r="O11">
+        <v>0.09300808131111737</v>
+      </c>
+      <c r="P11">
+        <v>0.09300808131111739</v>
+      </c>
+      <c r="Q11">
+        <v>70.73914437015432</v>
+      </c>
+      <c r="R11">
+        <v>636.6522993313889</v>
+      </c>
+      <c r="S11">
+        <v>0.003687810650944156</v>
+      </c>
+      <c r="T11">
+        <v>0.003687810650944157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H12">
+        <v>21.589359</v>
+      </c>
+      <c r="I12">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J12">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.933664</v>
+      </c>
+      <c r="N12">
+        <v>32.800992</v>
+      </c>
+      <c r="O12">
+        <v>0.1034534789405002</v>
+      </c>
+      <c r="P12">
+        <v>0.1034534789405003</v>
+      </c>
+      <c r="Q12">
+        <v>78.683599093792</v>
+      </c>
+      <c r="R12">
+        <v>708.1523918441279</v>
+      </c>
+      <c r="S12">
+        <v>0.004101975184691834</v>
+      </c>
+      <c r="T12">
+        <v>0.004101975184691835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H13">
+        <v>21.589359</v>
+      </c>
+      <c r="I13">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J13">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>37.34441866666666</v>
+      </c>
+      <c r="N13">
+        <v>112.033256</v>
+      </c>
+      <c r="O13">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="P13">
+        <v>0.3533499868001453</v>
+      </c>
+      <c r="Q13">
+        <v>268.7473537469893</v>
+      </c>
+      <c r="R13">
+        <v>2418.726183722904</v>
+      </c>
+      <c r="S13">
+        <v>0.01401047980415432</v>
+      </c>
+      <c r="T13">
+        <v>0.01401047980415432</v>
       </c>
     </row>
   </sheetData>
